--- a/Chambai/ChamBaiTemplates-ky2.xlsx
+++ b/Chambai/ChamBaiTemplates-ky2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\Aptech\Chambai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68D2D9E-B610-48AF-9A43-681692F2982E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0624581B-B617-42A5-ADAC-270EC90C4402}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="854" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18000" tabRatio="854" firstSheet="19" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADF1_01" sheetId="112" r:id="rId1"/>
@@ -48,6 +48,7 @@
     <sheet name="NodeJS-07" sheetId="208" r:id="rId33"/>
     <sheet name="NodeJS-08" sheetId="210" r:id="rId34"/>
     <sheet name="NodeJS-09" sheetId="211" r:id="rId35"/>
+    <sheet name="NodeJS-10" sheetId="213" r:id="rId36"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK4" localSheetId="0">ADF1_01!$A$4</definedName>
@@ -85,13 +86,14 @@
     <definedName name="OLE_LINK4" localSheetId="32">'NodeJS-07'!$A$4</definedName>
     <definedName name="OLE_LINK4" localSheetId="33">'NodeJS-08'!$A$4</definedName>
     <definedName name="OLE_LINK4" localSheetId="34">'NodeJS-09'!$A$4</definedName>
+    <definedName name="OLE_LINK4" localSheetId="35">'NodeJS-10'!$A$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="309">
   <si>
     <t>Điểm chấm</t>
   </si>
@@ -1804,6 +1806,44 @@
   </si>
   <si>
     <t>5. Exit Quit the application [0.5]</t>
+  </si>
+  <si>
+    <t>JP2</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>Phần 1: Setup và Khởi tạo Dự án (3 điểm)
+Câu 1 (1 điểm): Setup project ReactJS - Tạo một dự án ReactJS mới bằng cách sử dụng Create React App.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Câu 2 (2 điểm): Tạo Component Khởi đầu - Tạo một component có tên là App.js. - Trong App.js, khởi tạo một state characters kiểu mảng chứa thông tin của ít nhất 5 nhân vật trong One Piece. Mỗi đối tượng trong mảng cần có các thuộc tính như id, name, và bounty. - Dữ liệu mẫu: jsx    
+const [characters, setCharacters] = useState([     
+{ id: 1, name: 'Monkey D. Luffy', bounty: '1,500,000,000' },     
+{ id: 2, name: 'Roronoa Zoro', bounty: '320,000,000' },     
+{ id: 3, name: 'Nami', bounty: '66,000,000' },     
+{ id: 4, name: 'Usopp', bounty: '200,000,000' },     
+{ id: 5, name: 'Sanji', bounty: '330,000,000' }   </t>
+  </si>
+  <si>
+    <t>Phần 2: Hiển thị và Thêm mới Nhân vật (11 điểm)
+(6 điểm): Tạo và Cập nhật Component Character - Tạo một component có tên là Character.js. - Component này cần nhận thông tin về một nhân vật thông qua props và hiển thị id, tên và tiền thưởng (bounty) của nhân vật. - Thêm một nút “UPDATE” trong component này. Khi nút này được nhấn, thông tin của nhân vật sẽ được gửi lên component SaveCharacter để cập nhật. - Component Character.js cần thông báo cho App.js để nó cập nhật state đang được sử dụng bởi SaveCharacter.</t>
+  </si>
+  <si>
+    <t>(2 điểm): Hiển thị danh sách Nhân vật - Trong App.js, sử dụng map để lặp qua danh sách nhân vật trong state characters đã khởi tạo và hiển thị mỗi nhân vật bằng component Character.</t>
+  </si>
+  <si>
+    <t>(3 điểm): Tạo và Cập nhật Component SaveCharacter - Tạo một component có tên là SaveCharacter.js. - Component này cần có một biểu mẫu để nhập id, tên và tiền thưởng (bounty) của nhân vật. - Ô nhập id sẽ được hiển thị nhưng không cho phép chỉnh sửa, tuy nhiên vẫn bắt buộc phải hiển thị số id bên trong. - Mặc định id = 0</t>
+  </si>
+  <si>
+    <t>Phần 3: Chức năng Sửa thông tin Nhân vật 
+(3 điểm): Chức năng chỉnh sửa trong Component SaveCharacter - Component SaveCharacter.js sẽ bao gồm cả chức năng thêm mới khi id = 0 và update khi id &gt; 0 và tìm thấy nhân vật tương ứng.
+Các trường khác như id, tên và tiền thưởng (bounty) sẽ được điền sẵn để người dùng có thể chỉnh sửa nếu người dùng ấn nút UPDATE trong component Charactor.js. (1 điểm)
+Trong SaveCharacter.js, xây dựng logic khi sự kiện ấn nút SAVE để người dùng có thể chỉnh sửa thông tin của nhân vật dựa trên id nhập vào. (1 điểm)
+Nếu id = 0 thì tiến hành thêm mới một nhân vật. Nhân vật được thêm mới sẽ có id tự động tăng. ALERT thêm mới thành công.
+Nếu id &gt; 0 thì tiến hành cập nhật nhân vật đó. ALERT cập nhật thành công.
+Khi thông tin được lưu, cập nhật state characters và hiển thị danh sách cập nhật trên trang chính và form nhập liệu phải được RESET về giá trị mặc định. (1 điểm)</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2077,6 +2117,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2842,9 +2883,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2882,9 +2923,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2917,9 +2958,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2952,9 +3010,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3132,18 +3207,18 @@
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -3161,7 +3236,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -3169,7 +3244,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -3183,7 +3258,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="77.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3197,7 +3272,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="65.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -3211,7 +3286,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="48.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
@@ -3225,7 +3300,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -3239,7 +3314,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="110.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
@@ -3257,7 +3332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
@@ -3270,11 +3345,11 @@
       <c r="D10" s="8"/>
       <c r="E10" s="13"/>
       <c r="F10" s="1"/>
-      <c r="I10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="48.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
@@ -3288,7 +3363,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
@@ -3302,7 +3377,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -3316,7 +3391,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
@@ -3330,7 +3405,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="47.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -3344,7 +3419,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
@@ -3358,7 +3433,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
@@ -3396,20 +3471,20 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A10" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" style="29" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.84375" style="29"/>
+    <col min="1" max="1" width="100.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="29" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -3427,7 +3502,7 @@
       </c>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -3435,7 +3510,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="123.45" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>255</v>
       </c>
@@ -3447,7 +3522,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>256</v>
       </c>
@@ -3459,7 +3534,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:9" ht="138.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>257</v>
       </c>
@@ -3471,7 +3546,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:9" ht="169.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>258</v>
       </c>
@@ -3483,7 +3558,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>259</v>
       </c>
@@ -3495,7 +3570,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>230</v>
       </c>
@@ -3511,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="92.6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>260</v>
       </c>
@@ -3523,7 +3598,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" spans="1:9" ht="108" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>261</v>
       </c>
@@ -3535,7 +3610,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="1:9" ht="108" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>262</v>
       </c>
@@ -3547,7 +3622,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -3559,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -3567,10 +3642,10 @@
       <c r="E14" s="13"/>
       <c r="F14" s="30"/>
       <c r="I14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>1</v>
       </c>
@@ -3605,22 +3680,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889E101C-F57C-4649-B358-3A104E3F9C0E}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A16" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" style="29" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.84375" style="29"/>
+    <col min="1" max="1" width="100.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="29" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -3638,7 +3714,7 @@
       </c>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -3646,7 +3722,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>283</v>
       </c>
@@ -3658,7 +3734,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>284</v>
       </c>
@@ -3670,7 +3746,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>285</v>
       </c>
@@ -3682,7 +3758,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>286</v>
       </c>
@@ -3694,7 +3770,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>287</v>
       </c>
@@ -3706,7 +3782,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>288</v>
       </c>
@@ -3722,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>289</v>
       </c>
@@ -3734,7 +3810,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>290</v>
       </c>
@@ -3746,7 +3822,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>291</v>
       </c>
@@ -3758,7 +3834,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>292</v>
       </c>
@@ -3770,7 +3846,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="30"/>
     </row>
-    <row r="14" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>293</v>
       </c>
@@ -3782,7 +3858,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="30"/>
     </row>
-    <row r="15" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>294</v>
       </c>
@@ -3794,7 +3870,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="30"/>
     </row>
-    <row r="16" spans="1:9" ht="108" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>295</v>
       </c>
@@ -3806,7 +3882,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="30"/>
     </row>
-    <row r="17" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>296</v>
       </c>
@@ -3818,7 +3894,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="30"/>
     </row>
-    <row r="18" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>297</v>
       </c>
@@ -3830,7 +3906,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>298</v>
       </c>
@@ -3842,7 +3918,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>299</v>
       </c>
@@ -3854,7 +3930,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="30"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>300</v>
       </c>
@@ -3866,7 +3942,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="30"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -3878,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -3886,10 +3962,10 @@
       <c r="E23" s="13"/>
       <c r="F23" s="30"/>
       <c r="I23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>1</v>
       </c>
@@ -3910,12 +3986,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3927,21 +4003,21 @@
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15234375" customWidth="1"/>
-    <col min="2" max="2" width="82.15234375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" style="23" customWidth="1"/>
-    <col min="4" max="5" width="12.4609375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="32.69140625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="8.84375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="23" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
@@ -3959,7 +4035,7 @@
       </c>
       <c r="G2" s="42"/>
     </row>
-    <row r="3" spans="1:9" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -3967,7 +4043,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="42"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>19</v>
@@ -3982,7 +4058,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>20</v>
       </c>
@@ -3996,7 +4072,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>21</v>
       </c>
@@ -4010,7 +4086,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
@@ -4024,7 +4100,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
@@ -4038,7 +4114,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
@@ -4056,7 +4132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
@@ -4070,10 +4146,10 @@
       <c r="F10" s="16"/>
       <c r="G10" s="8"/>
       <c r="I10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
@@ -4087,7 +4163,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>27</v>
       </c>
@@ -4101,7 +4177,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="92.6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>28</v>
       </c>
@@ -4115,7 +4191,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="138.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
@@ -4129,7 +4205,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="17.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>1</v>
       </c>
@@ -4171,17 +4247,17 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15234375" customWidth="1"/>
-    <col min="2" max="2" width="82.15234375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" style="23" customWidth="1"/>
-    <col min="4" max="5" width="12.4609375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="32.69140625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="8.84375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="23" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
@@ -4199,7 +4275,7 @@
       </c>
       <c r="G2" s="42"/>
     </row>
-    <row r="3" spans="1:9" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -4207,7 +4283,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="42"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>19</v>
@@ -4222,7 +4298,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>20</v>
       </c>
@@ -4236,7 +4312,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>30</v>
       </c>
@@ -4248,7 +4324,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>31</v>
       </c>
@@ -4260,7 +4336,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>32</v>
       </c>
@@ -4272,7 +4348,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="17.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>1</v>
       </c>
@@ -4295,9 +4371,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
-        <v>124</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4323,17 +4399,17 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15234375" customWidth="1"/>
-    <col min="2" max="2" width="82.15234375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" style="23" customWidth="1"/>
-    <col min="4" max="5" width="12.4609375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="32.69140625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="8.84375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="23" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
@@ -4351,7 +4427,7 @@
       </c>
       <c r="G2" s="42"/>
     </row>
-    <row r="3" spans="1:9" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -4359,7 +4435,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="177.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="177.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="18">
@@ -4370,7 +4446,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
@@ -4382,7 +4458,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>34</v>
       </c>
@@ -4394,7 +4470,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>35</v>
       </c>
@@ -4406,7 +4482,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>36</v>
       </c>
@@ -4418,7 +4494,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>37</v>
       </c>
@@ -4434,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>38</v>
       </c>
@@ -4446,10 +4522,10 @@
       <c r="F10" s="16"/>
       <c r="G10" s="8"/>
       <c r="I10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>39</v>
       </c>
@@ -4461,7 +4537,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="17.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>1</v>
       </c>
@@ -4500,22 +4576,22 @@
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A2:I10"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15234375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="107.3046875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" style="25" customWidth="1"/>
-    <col min="4" max="5" width="12.4609375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="32.69140625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="8.84375" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="8.84375" style="25"/>
+    <col min="1" max="1" width="9.140625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="107.28515625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="25" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
@@ -4533,7 +4609,7 @@
       </c>
       <c r="G2" s="42"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -4541,7 +4617,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="140.05000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="16" t="s">
         <v>40</v>
@@ -4554,7 +4630,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="186" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>41</v>
       </c>
@@ -4566,7 +4642,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" spans="1:9" ht="86.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>42</v>
       </c>
@@ -4578,7 +4654,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>43</v>
       </c>
@@ -4590,7 +4666,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="27"/>
     </row>
-    <row r="8" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>44</v>
       </c>
@@ -4602,7 +4678,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="27"/>
     </row>
-    <row r="9" spans="1:9" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>1</v>
       </c>
@@ -4625,9 +4701,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
-        <v>124</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4649,19 +4725,19 @@
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A2:I13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -4679,7 +4755,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -4687,7 +4763,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="123.45" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -4699,7 +4775,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -4711,7 +4787,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -4723,7 +4799,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -4735,7 +4811,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
@@ -4747,7 +4823,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
@@ -4763,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -4775,10 +4851,10 @@
       <c r="E10" s="9"/>
       <c r="F10" s="1"/>
       <c r="I10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
@@ -4790,7 +4866,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
@@ -4802,7 +4878,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="2">
         <f>SUM(B4:B12)</f>
@@ -4838,19 +4914,19 @@
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A2:I13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -4868,7 +4944,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -4876,7 +4952,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
@@ -4888,7 +4964,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>62</v>
       </c>
@@ -4900,7 +4976,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
@@ -4912,7 +4988,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
@@ -4924,7 +5000,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
@@ -4936,7 +5012,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="92.6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>66</v>
       </c>
@@ -4952,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -4964,10 +5040,10 @@
       <c r="E10" s="9"/>
       <c r="F10" s="1"/>
       <c r="I10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -4979,7 +5055,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -4987,7 +5063,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="2">
         <f>SUM(B4:B12)</f>
@@ -5023,19 +5099,19 @@
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A2:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -5053,7 +5129,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -5061,7 +5137,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -5073,7 +5149,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="92.6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -5085,7 +5161,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
@@ -5097,7 +5173,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -5109,7 +5185,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -5121,7 +5197,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="123.45" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>74</v>
       </c>
@@ -5137,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
@@ -5149,10 +5225,10 @@
       <c r="E10" s="9"/>
       <c r="F10" s="1"/>
       <c r="I10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
@@ -5164,7 +5240,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -5172,7 +5248,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="2">
         <f>SUM(B4:B12)</f>
@@ -5208,19 +5284,19 @@
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A2:I13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -5238,7 +5314,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -5246,7 +5322,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="138.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
@@ -5258,7 +5334,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
@@ -5270,7 +5346,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
@@ -5282,7 +5358,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
@@ -5294,7 +5370,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
@@ -5306,7 +5382,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -5322,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>83</v>
       </c>
@@ -5334,10 +5410,10 @@
       <c r="E10" s="9"/>
       <c r="F10" s="1"/>
       <c r="I10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>84</v>
       </c>
@@ -5349,7 +5425,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>85</v>
       </c>
@@ -5361,7 +5437,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="2">
         <f>SUM(B4:B12)</f>
@@ -5397,19 +5473,19 @@
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -5427,7 +5503,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -5435,7 +5511,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="110.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -5447,7 +5523,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="77.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -5459,7 +5535,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="101.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="101.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -5471,7 +5547,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>47</v>
       </c>
@@ -5483,7 +5559,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>48</v>
       </c>
@@ -5495,7 +5571,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="77.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>49</v>
       </c>
@@ -5511,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="114" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>50</v>
       </c>
@@ -5522,11 +5598,11 @@
       <c r="D10" s="8"/>
       <c r="E10" s="13"/>
       <c r="F10" s="1"/>
-      <c r="I10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I10" s="43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -5564,19 +5640,19 @@
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -5594,7 +5670,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -5602,7 +5678,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="277.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>101</v>
       </c>
@@ -5614,7 +5690,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>102</v>
       </c>
@@ -5626,7 +5702,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>103</v>
       </c>
@@ -5638,7 +5714,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>104</v>
       </c>
@@ -5650,7 +5726,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>105</v>
       </c>
@@ -5662,7 +5738,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="138.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>106</v>
       </c>
@@ -5678,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>107</v>
       </c>
@@ -5690,10 +5766,10 @@
       <c r="E10" s="9"/>
       <c r="F10" s="1"/>
       <c r="I10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>108</v>
       </c>
@@ -5705,7 +5781,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>109</v>
       </c>
@@ -5717,7 +5793,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>110</v>
       </c>
@@ -5729,7 +5805,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="2">
         <f>SUM(B4:B13)</f>
@@ -5765,19 +5841,19 @@
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -5795,7 +5871,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -5803,7 +5879,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>125</v>
       </c>
@@ -5815,7 +5891,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>126</v>
       </c>
@@ -5827,7 +5903,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="196" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>127</v>
       </c>
@@ -5839,7 +5915,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="92.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>128</v>
       </c>
@@ -5851,7 +5927,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="123.45" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>129</v>
       </c>
@@ -5863,7 +5939,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>130</v>
       </c>
@@ -5879,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>131</v>
       </c>
@@ -5891,10 +5967,10 @@
       <c r="E10" s="9"/>
       <c r="F10" s="1"/>
       <c r="I10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -5902,7 +5978,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -5910,7 +5986,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -5918,7 +5994,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="2">
         <f>SUM(B4:B13)</f>
@@ -5954,19 +6030,19 @@
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -5984,7 +6060,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -5992,7 +6068,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="169.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>132</v>
       </c>
@@ -6004,7 +6080,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="92.6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>133</v>
       </c>
@@ -6016,7 +6092,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>134</v>
       </c>
@@ -6028,7 +6104,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>135</v>
       </c>
@@ -6040,7 +6116,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="231.45" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>136</v>
       </c>
@@ -6052,7 +6128,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>137</v>
       </c>
@@ -6068,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>138</v>
       </c>
@@ -6080,10 +6156,10 @@
       <c r="E10" s="9"/>
       <c r="F10" s="1"/>
       <c r="I10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>139</v>
       </c>
@@ -6095,7 +6171,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>140</v>
       </c>
@@ -6107,7 +6183,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -6115,7 +6191,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="2">
         <f>SUM(B4:B13)</f>
@@ -6152,18 +6228,18 @@
   <dimension ref="A2:I11"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -6181,7 +6257,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -6189,7 +6265,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>148</v>
       </c>
@@ -6201,7 +6277,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>149</v>
       </c>
@@ -6213,7 +6289,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>150</v>
       </c>
@@ -6225,7 +6301,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="108" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>151</v>
       </c>
@@ -6237,7 +6313,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="108" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>152</v>
       </c>
@@ -6249,7 +6325,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>153</v>
       </c>
@@ -6265,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>154</v>
       </c>
@@ -6277,10 +6353,10 @@
       <c r="E10" s="9"/>
       <c r="F10" s="1"/>
       <c r="I10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="2">
         <f>SUM(B4:B10)</f>
@@ -6316,19 +6392,19 @@
   <sheetPr codeName="Sheet92"/>
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -6346,7 +6422,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -6354,7 +6430,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="123.45" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>211</v>
       </c>
@@ -6366,7 +6442,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="169.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>212</v>
       </c>
@@ -6378,7 +6454,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="123.45" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>213</v>
       </c>
@@ -6390,7 +6466,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="123.45" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>214</v>
       </c>
@@ -6402,7 +6478,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="154.30000000000001" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>215</v>
       </c>
@@ -6414,7 +6490,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>216</v>
       </c>
@@ -6430,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>217</v>
       </c>
@@ -6442,10 +6518,10 @@
       <c r="E10" s="9"/>
       <c r="F10" s="1"/>
       <c r="I10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="154.30000000000001" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>218</v>
       </c>
@@ -6457,7 +6533,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="2">
         <f>SUM(B1:B11)</f>
@@ -6497,15 +6573,15 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -6523,7 +6599,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -6531,7 +6607,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>219</v>
       </c>
@@ -6543,7 +6619,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>220</v>
       </c>
@@ -6555,7 +6631,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>221</v>
       </c>
@@ -6567,7 +6643,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>222</v>
       </c>
@@ -6579,7 +6655,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>223</v>
       </c>
@@ -6591,7 +6667,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>224</v>
       </c>
@@ -6607,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>225</v>
       </c>
@@ -6622,7 +6698,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="2">
         <f>SUM(B1:B10)</f>
@@ -6662,15 +6738,15 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -6688,7 +6764,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -6696,7 +6772,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>245</v>
       </c>
@@ -6708,7 +6784,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="200.6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>246</v>
       </c>
@@ -6720,7 +6796,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>247</v>
       </c>
@@ -6732,7 +6808,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="138.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>248</v>
       </c>
@@ -6744,7 +6820,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="216" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>249</v>
       </c>
@@ -6756,7 +6832,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="138.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>250</v>
       </c>
@@ -6772,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>251</v>
       </c>
@@ -6787,7 +6863,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>253</v>
       </c>
@@ -6799,7 +6875,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="339.45" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>254</v>
       </c>
@@ -6811,7 +6887,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="2">
         <f>SUM(B1:B12)</f>
@@ -6851,15 +6927,15 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -6877,7 +6953,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -6885,7 +6961,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="238.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>146</v>
       </c>
@@ -6897,7 +6973,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>141</v>
       </c>
@@ -6909,7 +6985,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>142</v>
       </c>
@@ -6921,7 +6997,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>143</v>
       </c>
@@ -6933,7 +7009,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>144</v>
       </c>
@@ -6945,7 +7021,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>145</v>
       </c>
@@ -6961,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="2">
         <f>SUM(B4:B9)</f>
@@ -7005,15 +7081,15 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -7031,7 +7107,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -7039,7 +7115,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="31.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="31.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>155</v>
       </c>
@@ -7051,7 +7127,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>156</v>
       </c>
@@ -7063,7 +7139,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>157</v>
       </c>
@@ -7075,7 +7151,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>158</v>
       </c>
@@ -7087,7 +7163,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>159</v>
       </c>
@@ -7099,7 +7175,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="138.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>160</v>
       </c>
@@ -7115,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="154.30000000000001" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>161</v>
       </c>
@@ -7130,7 +7206,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>162</v>
       </c>
@@ -7142,7 +7218,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>163</v>
       </c>
@@ -7154,7 +7230,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>164</v>
       </c>
@@ -7166,7 +7242,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>165</v>
       </c>
@@ -7178,7 +7254,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -7186,7 +7262,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="2">
         <f>SUM(B4:B15)</f>
@@ -7226,15 +7302,15 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -7252,7 +7328,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -7260,7 +7336,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="31.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="31.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>166</v>
       </c>
@@ -7272,7 +7348,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>167</v>
       </c>
@@ -7284,7 +7360,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>168</v>
       </c>
@@ -7296,7 +7372,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>169</v>
       </c>
@@ -7308,7 +7384,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="123.45" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>170</v>
       </c>
@@ -7320,7 +7396,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="138.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>171</v>
       </c>
@@ -7336,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>172</v>
       </c>
@@ -7351,7 +7427,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>173</v>
       </c>
@@ -7363,7 +7439,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>174</v>
       </c>
@@ -7375,7 +7451,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>175</v>
       </c>
@@ -7387,7 +7463,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>177</v>
       </c>
@@ -7399,7 +7475,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>176</v>
       </c>
@@ -7411,7 +7487,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -7419,7 +7495,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="2">
         <f>SUM(B4:B15)</f>
@@ -7455,20 +7531,20 @@
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" style="29" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.84375" style="29"/>
+    <col min="1" max="1" width="100.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="29" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -7486,7 +7562,7 @@
       </c>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -7494,7 +7570,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>86</v>
       </c>
@@ -7506,7 +7582,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:9" ht="110.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>87</v>
       </c>
@@ -7518,7 +7594,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:9" ht="110.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>88</v>
       </c>
@@ -7530,7 +7606,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:9" ht="68.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
@@ -7542,7 +7618,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:9" ht="47.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>90</v>
       </c>
@@ -7554,7 +7630,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:9" ht="41.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>91</v>
       </c>
@@ -7570,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>92</v>
       </c>
@@ -7581,11 +7657,11 @@
       <c r="D10" s="30"/>
       <c r="E10" s="13"/>
       <c r="F10" s="30"/>
-      <c r="I10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>93</v>
       </c>
@@ -7597,7 +7673,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="1:9" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>94</v>
       </c>
@@ -7609,7 +7685,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:9" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>95</v>
       </c>
@@ -7621,7 +7697,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="30"/>
     </row>
-    <row r="14" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>96</v>
       </c>
@@ -7633,7 +7709,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="30"/>
     </row>
-    <row r="15" spans="1:9" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>97</v>
       </c>
@@ -7645,7 +7721,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="30"/>
     </row>
-    <row r="16" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>98</v>
       </c>
@@ -7657,7 +7733,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="30"/>
     </row>
-    <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>99</v>
       </c>
@@ -7669,7 +7745,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="30"/>
     </row>
-    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>100</v>
       </c>
@@ -7681,7 +7757,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>1</v>
       </c>
@@ -7723,15 +7799,15 @@
       <selection activeCell="A4" sqref="A4:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -7749,7 +7825,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -7757,7 +7833,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>186</v>
       </c>
@@ -7769,7 +7845,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>187</v>
       </c>
@@ -7781,7 +7857,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>188</v>
       </c>
@@ -7793,7 +7869,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>189</v>
       </c>
@@ -7805,7 +7881,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>190</v>
       </c>
@@ -7815,7 +7891,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="92.6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>191</v>
       </c>
@@ -7829,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -7840,7 +7916,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="2">
         <f>SUM(B4:B10)</f>
@@ -7880,15 +7956,15 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -7906,7 +7982,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -7914,7 +7990,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>241</v>
       </c>
@@ -7926,7 +8002,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>242</v>
       </c>
@@ -7938,7 +8014,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>243</v>
       </c>
@@ -7950,7 +8026,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="169.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>244</v>
       </c>
@@ -7962,7 +8038,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -7970,7 +8046,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -7982,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -7993,7 +8069,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="2">
         <f>SUM(B4:B10)</f>
@@ -8033,15 +8109,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -8059,7 +8135,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -8067,7 +8143,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="297" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="297" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="37">
         <v>2</v>
@@ -8077,7 +8153,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="37">
         <v>3.5</v>
@@ -8087,7 +8163,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="37">
         <v>3.5</v>
@@ -8097,7 +8173,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="37">
         <v>2</v>
@@ -8107,7 +8183,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="37">
         <v>1</v>
@@ -8117,7 +8193,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="260.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="260.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="37">
         <v>8</v>
@@ -8131,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -8142,7 +8218,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="2">
         <f>SUM(B4:B10)</f>
@@ -8183,15 +8259,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -8209,7 +8285,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -8217,7 +8293,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="289" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="288.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="37">
         <v>2</v>
@@ -8227,7 +8303,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="37">
         <v>3</v>
@@ -8237,7 +8313,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="109" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="108.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="37">
         <v>4</v>
@@ -8247,7 +8323,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="37">
         <v>2</v>
@@ -8257,7 +8333,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="37">
         <v>1</v>
@@ -8267,7 +8343,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="281.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="281.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="37">
         <v>8</v>
@@ -8281,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -8292,7 +8368,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="2">
         <f>SUM(B4:B10)</f>
@@ -8333,15 +8409,15 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -8359,7 +8435,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -8367,7 +8443,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>263</v>
       </c>
@@ -8379,7 +8455,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>264</v>
       </c>
@@ -8391,7 +8467,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>265</v>
       </c>
@@ -8403,7 +8479,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>266</v>
       </c>
@@ -8415,7 +8491,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>267</v>
       </c>
@@ -8427,7 +8503,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>268</v>
       </c>
@@ -8443,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>269</v>
       </c>
@@ -8458,7 +8534,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>270</v>
       </c>
@@ -8470,7 +8546,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>271</v>
       </c>
@@ -8482,7 +8558,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>272</v>
       </c>
@@ -8494,7 +8570,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>273</v>
       </c>
@@ -8506,7 +8582,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="2">
         <f>SUM(B4:B14)</f>
@@ -8546,15 +8622,15 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -8572,7 +8648,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -8580,7 +8656,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>274</v>
       </c>
@@ -8592,7 +8668,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>275</v>
       </c>
@@ -8604,7 +8680,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>276</v>
       </c>
@@ -8616,7 +8692,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>277</v>
       </c>
@@ -8628,7 +8704,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>278</v>
       </c>
@@ -8640,7 +8716,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>279</v>
       </c>
@@ -8656,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>280</v>
       </c>
@@ -8671,7 +8747,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>281</v>
       </c>
@@ -8683,7 +8759,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>282</v>
       </c>
@@ -8695,7 +8771,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -8703,7 +8779,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -8711,7 +8787,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="2">
         <f>SUM(B4:B14)</f>
@@ -8742,25 +8818,218 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E28E61-1CF8-4620-B6D5-C6D6085D356B}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A2:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="100.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="37">
+        <v>3</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="37">
+        <v>2</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="37">
+        <v>6</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="37">
+        <v>2</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="37">
+        <v>3</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="37">
+        <v>4</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="1"/>
+      <c r="I9">
+        <f>C15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="1"/>
+      <c r="I10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2">
+        <f>SUM(B4:B14)</f>
+        <v>20</v>
+      </c>
+      <c r="C15" s="2">
+        <f>SUM(C4:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(D4:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D25AAD-3C26-7A4E-8AA0-A2FD7D195F27}">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" style="29" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.84375" style="29"/>
+    <col min="1" max="1" width="100.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="29" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -8778,7 +9047,7 @@
       </c>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -8786,7 +9055,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>111</v>
       </c>
@@ -8798,7 +9067,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:9" ht="88" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>112</v>
       </c>
@@ -8810,7 +9079,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>113</v>
       </c>
@@ -8822,7 +9091,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:9" ht="68.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>114</v>
       </c>
@@ -8834,7 +9103,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:9" ht="86.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>116</v>
       </c>
@@ -8846,7 +9115,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:9" ht="41.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>115</v>
       </c>
@@ -8862,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>117</v>
       </c>
@@ -8873,11 +9142,11 @@
       <c r="D10" s="30"/>
       <c r="E10" s="13"/>
       <c r="F10" s="30"/>
-      <c r="I10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="73" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>118</v>
       </c>
@@ -8889,7 +9158,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="1:9" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>119</v>
       </c>
@@ -8901,7 +9170,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:9" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>120</v>
       </c>
@@ -8913,7 +9182,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="30"/>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>121</v>
       </c>
@@ -8925,7 +9194,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="30"/>
     </row>
-    <row r="15" spans="1:9" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>122</v>
       </c>
@@ -8937,7 +9206,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="30"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>1</v>
       </c>
@@ -8975,20 +9244,20 @@
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A7" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" style="29" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.84375" style="29"/>
+    <col min="1" max="1" width="100.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="29" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -9006,7 +9275,7 @@
       </c>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -9014,7 +9283,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>178</v>
       </c>
@@ -9026,7 +9295,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>179</v>
       </c>
@@ -9038,7 +9307,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:9" ht="123.45" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>180</v>
       </c>
@@ -9050,7 +9319,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:9" ht="154.30000000000001" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>181</v>
       </c>
@@ -9062,7 +9331,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:9" ht="86.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>182</v>
       </c>
@@ -9074,7 +9343,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>183</v>
       </c>
@@ -9090,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="93" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>184</v>
       </c>
@@ -9101,11 +9370,11 @@
       <c r="D10" s="30"/>
       <c r="E10" s="13"/>
       <c r="F10" s="30"/>
-      <c r="I10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="409.6" x14ac:dyDescent="0.45">
+      <c r="I10" s="43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>185</v>
       </c>
@@ -9117,7 +9386,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>1</v>
       </c>
@@ -9156,19 +9425,19 @@
   <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" style="29" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.84375" style="29"/>
+    <col min="1" max="1" width="100.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="29" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -9186,7 +9455,7 @@
       </c>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -9194,7 +9463,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>192</v>
       </c>
@@ -9206,7 +9475,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:9" ht="138.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>193</v>
       </c>
@@ -9218,7 +9487,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>194</v>
       </c>
@@ -9230,7 +9499,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>195</v>
       </c>
@@ -9242,7 +9511,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:9" ht="86.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>196</v>
       </c>
@@ -9254,7 +9523,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>197</v>
       </c>
@@ -9270,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>198</v>
       </c>
@@ -9281,11 +9550,11 @@
       <c r="D10" s="30"/>
       <c r="E10" s="13"/>
       <c r="F10" s="30"/>
-      <c r="I10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="108.45" x14ac:dyDescent="0.45">
+      <c r="I10" s="43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>199</v>
       </c>
@@ -9298,7 +9567,7 @@
       <c r="F11" s="30"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" ht="31.3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>200</v>
       </c>
@@ -9311,7 +9580,7 @@
       <c r="F12" s="30"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" ht="46.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>201</v>
       </c>
@@ -9324,7 +9593,7 @@
       <c r="F13" s="30"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" ht="31.3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>202</v>
       </c>
@@ -9337,7 +9606,7 @@
       <c r="F14" s="30"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>203</v>
       </c>
@@ -9349,7 +9618,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="30"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>1</v>
       </c>
@@ -9387,20 +9656,20 @@
   <sheetPr codeName="Sheet91"/>
   <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A10" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" style="29" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.84375" style="29"/>
+    <col min="1" max="1" width="100.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="29" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -9418,7 +9687,7 @@
       </c>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -9426,7 +9695,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="138.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>204</v>
       </c>
@@ -9438,7 +9707,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>205</v>
       </c>
@@ -9450,7 +9719,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:9" ht="246.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="252" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>206</v>
       </c>
@@ -9462,7 +9731,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:9" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>207</v>
       </c>
@@ -9474,7 +9743,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:9" ht="86.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>208</v>
       </c>
@@ -9486,7 +9755,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>209</v>
       </c>
@@ -9502,7 +9771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="46.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>210</v>
       </c>
@@ -9513,11 +9782,11 @@
       <c r="D10" s="30"/>
       <c r="E10" s="13"/>
       <c r="F10" s="30"/>
-      <c r="I10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I10" s="43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>1</v>
       </c>
@@ -9555,20 +9824,20 @@
   <sheetPr codeName="Sheet98"/>
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" style="29" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.84375" style="29"/>
+    <col min="1" max="1" width="100.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="29" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -9586,7 +9855,7 @@
       </c>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -9594,7 +9863,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="123.45" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>226</v>
       </c>
@@ -9606,7 +9875,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>227</v>
       </c>
@@ -9618,7 +9887,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:9" ht="185.15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="189" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>228</v>
       </c>
@@ -9630,7 +9899,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:9" ht="108" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>179</v>
       </c>
@@ -9642,7 +9911,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:9" ht="216" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>229</v>
       </c>
@@ -9654,7 +9923,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>230</v>
       </c>
@@ -9670,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>230</v>
       </c>
@@ -9681,8 +9950,11 @@
       <c r="D10" s="30"/>
       <c r="E10" s="9"/>
       <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:9" ht="92.6" x14ac:dyDescent="0.45">
+      <c r="I10" s="43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>231</v>
       </c>
@@ -9694,7 +9966,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>232</v>
       </c>
@@ -9706,7 +9978,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -9718,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -9729,7 +10001,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>1</v>
       </c>
@@ -9767,20 +10039,20 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A10" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.15234375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" style="29" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.84375" style="29"/>
+    <col min="1" max="1" width="100.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="29" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -9798,7 +10070,7 @@
       </c>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -9806,7 +10078,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="61.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>233</v>
       </c>
@@ -9818,7 +10090,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:9" ht="154.30000000000001" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>234</v>
       </c>
@@ -9830,7 +10102,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>235</v>
       </c>
@@ -9842,7 +10114,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:9" ht="46.3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>236</v>
       </c>
@@ -9854,7 +10126,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:9" ht="92.6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>237</v>
       </c>
@@ -9866,7 +10138,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>238</v>
       </c>
@@ -9882,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>239</v>
       </c>
@@ -9894,7 +10166,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" spans="1:9" ht="216" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>240</v>
       </c>
@@ -9906,7 +10178,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -9914,7 +10186,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -9926,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -9934,10 +10206,10 @@
       <c r="E14" s="13"/>
       <c r="F14" s="30"/>
       <c r="I14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>1</v>
       </c>
